--- a/Composants/Liste des composants.xlsx
+++ b/Composants/Liste des composants.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="68">
   <si>
     <t>Désignation</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>Prêt à commander</t>
+  </si>
+  <si>
+    <t>Empreinte prexistante</t>
   </si>
 </sst>
 </file>
@@ -281,7 +284,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -354,11 +357,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -367,9 +381,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -396,6 +407,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -702,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N42"/>
+  <dimension ref="B2:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView tabSelected="1" topLeftCell="D8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,27 +738,28 @@
     <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="I2" s="5" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="I2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-    </row>
-    <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+    </row>
+    <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -778,32 +796,35 @@
       <c r="N4" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="8" t="s">
+      <c r="J5" s="8"/>
+      <c r="K5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="8">
-        <v>1</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="8">
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="7">
         <v>9731121</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>34</v>
       </c>
@@ -820,24 +841,24 @@
       <c r="G6" s="4">
         <v>1612187</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8" t="s">
+      <c r="J6" s="7"/>
+      <c r="K6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="7">
         <v>2</v>
       </c>
-      <c r="M6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="8">
+      <c r="M6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="7">
         <v>9731121</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>35</v>
       </c>
@@ -861,7 +882,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
@@ -878,24 +899,24 @@
       <c r="G8" s="4">
         <v>2210776</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L8" s="8">
+      <c r="J8" s="7"/>
+      <c r="K8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="7">
         <v>14</v>
       </c>
-      <c r="M8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="8">
+      <c r="M8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="7">
         <v>1740621</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
@@ -912,24 +933,24 @@
       <c r="G9" s="4">
         <v>1740573</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="8">
-        <v>1</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" s="8">
+      <c r="J9" s="7"/>
+      <c r="K9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="7">
         <v>1612187</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>42</v>
       </c>
@@ -946,24 +967,24 @@
       <c r="G10" s="4">
         <v>2332850</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="8">
-        <v>1</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" s="8">
+      <c r="J10" s="7"/>
+      <c r="K10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="7">
+        <v>1</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="7">
         <v>2332850</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
@@ -980,24 +1001,24 @@
       <c r="G11" s="4">
         <v>1650904</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="8">
+      <c r="J11" s="7"/>
+      <c r="K11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="7">
         <v>2</v>
       </c>
-      <c r="M11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" s="8">
+      <c r="M11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="7">
         <v>1650898</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
@@ -1014,24 +1035,24 @@
       <c r="G12" s="4">
         <v>1650898</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L12" s="8">
+      <c r="J12" s="7"/>
+      <c r="K12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="7">
         <v>2</v>
       </c>
-      <c r="M12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="8">
+      <c r="M12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="7">
         <v>2218838</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
@@ -1048,24 +1069,24 @@
       <c r="G13" s="4">
         <v>2218838</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L13" s="8">
+      <c r="J13" s="7"/>
+      <c r="K13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="7">
         <v>2</v>
       </c>
-      <c r="M13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" s="8">
+      <c r="M13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="7">
         <v>2332866</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
@@ -1082,24 +1103,24 @@
       <c r="G14" s="4">
         <v>2343193</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L14" s="8">
-        <v>1</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" s="8">
+      <c r="J14" s="7"/>
+      <c r="K14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="7">
+        <v>1</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="7">
         <v>2219428</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>25</v>
       </c>
@@ -1116,24 +1137,24 @@
       <c r="G15" s="4">
         <v>2332870</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L15" s="8">
-        <v>1</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" s="8">
+      <c r="J15" s="7"/>
+      <c r="K15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="7">
+        <v>1</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="7">
         <v>2332870</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
@@ -1150,20 +1171,20 @@
       <c r="G16" s="4">
         <v>2219428</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L16" s="8">
-        <v>1</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" s="8">
+      <c r="J16" s="7"/>
+      <c r="K16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="7">
+        <v>1</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="7">
         <v>2210776</v>
       </c>
     </row>
@@ -1198,20 +1219,20 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L18" s="8">
-        <v>1</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="8">
+      <c r="J18" s="7"/>
+      <c r="K18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" s="7">
+        <v>1</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="7">
         <v>2286761</v>
       </c>
     </row>
@@ -1232,20 +1253,20 @@
       <c r="G19" s="4">
         <v>2395985</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L19" s="8">
-        <v>1</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N19" s="8">
+      <c r="J19" s="7"/>
+      <c r="K19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" s="7">
+        <v>1</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="7">
         <v>2286764</v>
       </c>
     </row>
@@ -1266,20 +1287,20 @@
       <c r="G20" s="4">
         <v>1160342</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L20" s="8">
-        <v>1</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N20" s="8">
+      <c r="J20" s="7"/>
+      <c r="K20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" s="7">
+        <v>1</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="7">
         <v>2286765</v>
       </c>
     </row>
@@ -1324,20 +1345,20 @@
       <c r="G22" s="4">
         <v>2324059</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="I22" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="L22" s="10">
+      <c r="J22" s="9"/>
+      <c r="K22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="9">
         <v>2</v>
       </c>
-      <c r="M22" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N22" s="10">
+      <c r="M22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" s="9">
         <v>1675211</v>
       </c>
     </row>
@@ -1358,20 +1379,20 @@
       <c r="G23" s="4">
         <v>1653097</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L23" s="8">
-        <v>1</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N23" s="8">
+      <c r="J23" s="7"/>
+      <c r="K23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="7">
+        <v>1</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" s="7">
         <v>1653097</v>
       </c>
     </row>
@@ -1382,20 +1403,20 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L24" s="8">
-        <v>1</v>
-      </c>
-      <c r="M24" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N24" s="8">
+      <c r="J24" s="7"/>
+      <c r="K24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="7">
+        <v>1</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="7">
         <v>1652998</v>
       </c>
     </row>
@@ -1416,20 +1437,20 @@
       <c r="G25" s="4">
         <v>2286765</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L25" s="8">
-        <v>1</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N25" s="8">
+      <c r="J25" s="7"/>
+      <c r="K25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" s="7">
+        <v>1</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="7">
         <v>1160342</v>
       </c>
     </row>
@@ -1474,22 +1495,22 @@
       <c r="G27" s="4">
         <v>2286764</v>
       </c>
-      <c r="I27" s="8" t="s">
+      <c r="I27" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K27" s="8" t="s">
+      <c r="K27" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L27" s="8">
-        <v>1</v>
-      </c>
-      <c r="M27" s="8" t="s">
+      <c r="L27" s="7">
+        <v>1</v>
+      </c>
+      <c r="M27" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="N27" s="8"/>
+      <c r="N27" s="7"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
@@ -1524,22 +1545,22 @@
       <c r="G29" s="4">
         <v>1469053</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="I29" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L29" s="8">
+      <c r="K29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29" s="7">
         <v>2</v>
       </c>
-      <c r="M29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N29" s="8">
+      <c r="M29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N29" s="7">
         <v>1581969</v>
       </c>
     </row>
@@ -1576,20 +1597,20 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="I31" s="10" t="s">
+      <c r="I31" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="L31" s="10">
-        <v>1</v>
-      </c>
-      <c r="M31" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N31" s="11">
+      <c r="J31" s="9"/>
+      <c r="K31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" s="9">
+        <v>1</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" s="10">
         <v>1842314</v>
       </c>
     </row>
@@ -1638,22 +1659,22 @@
       <c r="G33" s="4">
         <v>1581969</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="I33" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J33" s="10" t="s">
+      <c r="J33" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="K33" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="L33" s="10">
-        <v>1</v>
-      </c>
-      <c r="M33" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N33" s="10">
+      <c r="K33" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33" s="9">
+        <v>1</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N33" s="9">
         <v>1296591</v>
       </c>
     </row>
@@ -1674,22 +1695,22 @@
       <c r="G34" s="4">
         <v>2293774</v>
       </c>
-      <c r="I34" s="10" t="s">
+      <c r="I34" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J34" s="10" t="s">
+      <c r="J34" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K34" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="L34" s="10">
+      <c r="K34" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L34" s="9">
         <v>2</v>
       </c>
-      <c r="M34" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N34" s="10">
+      <c r="M34" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N34" s="9">
         <v>1439380</v>
       </c>
     </row>
@@ -1724,22 +1745,22 @@
       <c r="G36" s="4">
         <v>2063977</v>
       </c>
-      <c r="I36" s="12" t="s">
+      <c r="I36" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J36" s="12" t="s">
+      <c r="J36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K36" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="L36" s="12">
-        <v>1</v>
-      </c>
-      <c r="M36" s="12" t="s">
+      <c r="K36" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L36" s="11">
+        <v>1</v>
+      </c>
+      <c r="M36" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="N36" s="12" t="s">
+      <c r="N36" s="11" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1760,12 +1781,12 @@
       <c r="G37" s="4">
         <v>1640907</v>
       </c>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
@@ -1774,14 +1795,14 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="6" t="s">
+      <c r="I38" s="12"/>
+      <c r="J38" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
@@ -1800,12 +1821,12 @@
         <v>20</v>
       </c>
       <c r="G39" s="4"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
@@ -1814,14 +1835,14 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="6" t="s">
+      <c r="I40" s="13"/>
+      <c r="J40" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
@@ -1840,12 +1861,12 @@
       <c r="G41" s="4">
         <v>2340512</v>
       </c>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
@@ -1864,12 +1885,12 @@
       <c r="G42" s="4">
         <v>9731121</v>
       </c>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Composants/Liste des composants.xlsx
+++ b/Composants/Liste des composants.xlsx
@@ -409,11 +409,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -721,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView tabSelected="1" topLeftCell="D5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,22 +742,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="I2" s="14" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="I2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
@@ -796,7 +796,7 @@
       <c r="N4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="O4" s="14" t="s">
         <v>67</v>
       </c>
     </row>

--- a/Composants/Liste des composants.xlsx
+++ b/Composants/Liste des composants.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="79">
   <si>
     <t>Désignation</t>
   </si>
@@ -169,8 +169,53 @@
     <t>Inductance 68 nH</t>
   </si>
   <si>
+    <t>Résistance 243Ω</t>
+  </si>
+  <si>
+    <t>Résistance 3.92kΩ</t>
+  </si>
+  <si>
+    <t>Convertisseur DC/DC</t>
+  </si>
+  <si>
+    <t>760-4729</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>RTM-0505S</t>
+  </si>
+  <si>
+    <t>MCP1700T-3302E/MB</t>
+  </si>
+  <si>
+    <t>MCP1700T-1802E/TT</t>
+  </si>
+  <si>
+    <t>T1 - 1T</t>
+  </si>
+  <si>
+    <t>STMicroelectronics</t>
+  </si>
+  <si>
+    <t>Synthétiseur numérique direct</t>
+  </si>
+  <si>
+    <t>Quartz 25 MHz 10 ppm 18 pF</t>
+  </si>
+  <si>
+    <t>En stock</t>
+  </si>
+  <si>
+    <t>Prêt à commander</t>
+  </si>
+  <si>
+    <t>Empreinte prexistante</t>
+  </si>
+  <si>
     <r>
-      <t>Résistance 25</t>
+      <t>Résistance 25.5</t>
     </r>
     <r>
       <rPr>
@@ -183,52 +228,40 @@
     </r>
   </si>
   <si>
-    <t>Résistance 243Ω</t>
-  </si>
-  <si>
-    <t>Résistance 3.9kΩ</t>
-  </si>
-  <si>
-    <t>Résistance 3.92kΩ</t>
-  </si>
-  <si>
-    <t>Convertisseur DC/DC</t>
-  </si>
-  <si>
-    <t>760-4729</t>
-  </si>
-  <si>
-    <t>RS</t>
-  </si>
-  <si>
-    <t>RTM-0505S</t>
-  </si>
-  <si>
-    <t>MCP1700T-3302E/MB</t>
-  </si>
-  <si>
-    <t>MCP1700T-1802E/TT</t>
-  </si>
-  <si>
-    <t>T1 - 1T</t>
-  </si>
-  <si>
-    <t>STMicroelectronics</t>
-  </si>
-  <si>
-    <t>Synthétiseur numérique direct</t>
-  </si>
-  <si>
-    <t>Quartz 25 MHz 10 ppm 18 pF</t>
-  </si>
-  <si>
-    <t>En stock</t>
-  </si>
-  <si>
-    <t>Prêt à commander</t>
-  </si>
-  <si>
-    <t>Empreinte prexistante</t>
+    <t>En attente de réception</t>
+  </si>
+  <si>
+    <t>0805</t>
+  </si>
+  <si>
+    <t>0603</t>
+  </si>
+  <si>
+    <t>Tolérance</t>
+  </si>
+  <si>
+    <t>Résistance 10kΩ</t>
+  </si>
+  <si>
+    <t>2333546RL</t>
+  </si>
+  <si>
+    <t>1206</t>
+  </si>
+  <si>
+    <t>Condensateur 10 uF</t>
+  </si>
+  <si>
+    <t>Radial - 4 * 5.4</t>
+  </si>
+  <si>
+    <t>0402</t>
+  </si>
+  <si>
+    <t>Condendateur 470 nF</t>
+  </si>
+  <si>
+    <t>1008</t>
   </si>
 </sst>
 </file>
@@ -258,7 +291,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,8 +316,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -357,22 +396,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -409,9 +437,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -719,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O42"/>
+  <dimension ref="B2:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,28 +788,29 @@
     <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="I2" s="15" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="I2" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-    </row>
-    <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+    </row>
+    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -796,11 +847,14 @@
       <c r="N4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O4" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -823,8 +877,10 @@
       <c r="N5" s="7">
         <v>9731121</v>
       </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O5" s="18"/>
+      <c r="P5" s="19"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>34</v>
       </c>
@@ -857,8 +913,10 @@
       <c r="N6" s="7">
         <v>9731121</v>
       </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O6" s="18"/>
+      <c r="P6" s="19"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>35</v>
       </c>
@@ -875,14 +933,30 @@
       <c r="G7" s="4">
         <v>1740621</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I7" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="21">
+        <v>2</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="23">
+        <v>2326128</v>
+      </c>
+      <c r="O7" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="20">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
@@ -915,8 +989,14 @@
       <c r="N8" s="7">
         <v>1740621</v>
       </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O8" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" s="20">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
@@ -949,8 +1029,14 @@
       <c r="N9" s="7">
         <v>1612187</v>
       </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O9" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="P9" s="20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>42</v>
       </c>
@@ -983,8 +1069,14 @@
       <c r="N10" s="7">
         <v>2332850</v>
       </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O10" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="P10" s="20">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
@@ -1017,8 +1109,14 @@
       <c r="N11" s="7">
         <v>1650898</v>
       </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O11" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
@@ -1051,8 +1149,14 @@
       <c r="N12" s="7">
         <v>2218838</v>
       </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O12" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" s="20">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
@@ -1085,8 +1189,14 @@
       <c r="N13" s="7">
         <v>2332866</v>
       </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O13" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="20">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
@@ -1119,8 +1229,14 @@
       <c r="N14" s="7">
         <v>2219428</v>
       </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O14" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="P14" s="20">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>25</v>
       </c>
@@ -1153,8 +1269,14 @@
       <c r="N15" s="7">
         <v>2332870</v>
       </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O15" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="P15" s="20">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
@@ -1187,8 +1309,14 @@
       <c r="N16" s="7">
         <v>2210776</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="P16" s="20">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>31</v>
       </c>
@@ -1205,38 +1333,58 @@
       <c r="G17" s="4">
         <v>2332866</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" s="7">
+        <v>1</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1650904</v>
+      </c>
+      <c r="O17" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="P17" s="20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="I18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L18" s="7">
-        <v>1</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="7">
-        <v>2286761</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I18" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" s="21">
+        <v>1</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="24"/>
+      <c r="O18" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="P18" s="20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>43</v>
       </c>
@@ -1254,7 +1402,7 @@
         <v>2395985</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7" t="s">
@@ -1267,10 +1415,16 @@
         <v>21</v>
       </c>
       <c r="N19" s="7">
-        <v>2286764</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2286761</v>
+      </c>
+      <c r="O19" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="P19" s="20">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>29</v>
       </c>
@@ -1288,7 +1442,7 @@
         <v>1160342</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7" t="s">
@@ -1301,10 +1455,16 @@
         <v>21</v>
       </c>
       <c r="N20" s="7">
-        <v>2286765</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2286764</v>
+      </c>
+      <c r="O20" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="P20" s="20">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>27</v>
       </c>
@@ -1321,14 +1481,30 @@
       <c r="G21" s="4">
         <v>1652998</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="7">
+        <v>1</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" s="7">
+        <v>2286765</v>
+      </c>
+      <c r="O21" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="P21" s="20">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>30</v>
       </c>
@@ -1346,7 +1522,7 @@
         <v>2324059</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9" t="s">
@@ -1359,10 +1535,16 @@
         <v>21</v>
       </c>
       <c r="N22" s="9">
-        <v>1675211</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2330577</v>
+      </c>
+      <c r="O22" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="P22" s="22">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>32</v>
       </c>
@@ -1380,7 +1562,7 @@
         <v>1653097</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7" t="s">
@@ -1395,32 +1577,44 @@
       <c r="N23" s="7">
         <v>1653097</v>
       </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O23" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="P23" s="20">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="I24" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L24" s="7">
-        <v>1</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N24" s="7">
-        <v>1652998</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I24" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="21">
+        <v>4</v>
+      </c>
+      <c r="M24" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="O24" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="P24" s="20">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>37</v>
       </c>
@@ -1438,7 +1632,7 @@
         <v>2286765</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7" t="s">
@@ -1453,8 +1647,14 @@
       <c r="N25" s="7">
         <v>1160342</v>
       </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O25" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="P25" s="22">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>36</v>
       </c>
@@ -1477,8 +1677,10 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O26" s="18"/>
+      <c r="P26" s="19"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>38</v>
       </c>
@@ -1499,7 +1701,7 @@
         <v>6</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>10</v>
@@ -1508,11 +1710,13 @@
         <v>1</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N27" s="7"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O27" s="18"/>
+      <c r="P27" s="19"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1525,8 +1729,10 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O28" s="18"/>
+      <c r="P28" s="19"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>11</v>
       </c>
@@ -1546,7 +1752,7 @@
         <v>1469053</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>24</v>
@@ -1563,8 +1769,10 @@
       <c r="N29" s="7">
         <v>1581969</v>
       </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O29" s="18"/>
+      <c r="P29" s="19"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>40</v>
       </c>
@@ -1589,8 +1797,10 @@
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O30" s="18"/>
+      <c r="P30" s="19"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1598,7 +1808,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="I31" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J31" s="9"/>
       <c r="K31" s="9" t="s">
@@ -1613,8 +1823,10 @@
       <c r="N31" s="10">
         <v>1842314</v>
       </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O31" s="18"/>
+      <c r="P31" s="19"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>12</v>
       </c>
@@ -1639,10 +1851,12 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O32" s="18"/>
+      <c r="P32" s="19"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>24</v>
@@ -1663,7 +1877,7 @@
         <v>11</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K33" s="9" t="s">
         <v>9</v>
@@ -1677,8 +1891,10 @@
       <c r="N33" s="9">
         <v>1296591</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O33" s="18"/>
+      <c r="P33" s="19"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>33</v>
       </c>
@@ -1699,7 +1915,7 @@
         <v>40</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K34" s="9" t="s">
         <v>9</v>
@@ -1713,8 +1929,10 @@
       <c r="N34" s="9">
         <v>1439380</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O34" s="18"/>
+      <c r="P34" s="19"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1727,8 +1945,10 @@
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O35" s="18"/>
+      <c r="P35" s="19"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
         <v>3</v>
       </c>
@@ -1746,25 +1966,27 @@
         <v>2063977</v>
       </c>
       <c r="I36" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L36" s="11">
+        <v>1</v>
+      </c>
+      <c r="M36" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J36" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L36" s="11">
-        <v>1</v>
-      </c>
-      <c r="M36" s="11" t="s">
-        <v>57</v>
-      </c>
       <c r="N36" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="O36" s="18"/>
+      <c r="P36" s="19"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
         <v>22</v>
       </c>
@@ -1788,7 +2010,7 @@
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -1797,14 +2019,14 @@
       <c r="G38" s="4"/>
       <c r="I38" s="12"/>
       <c r="J38" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
         <v>6</v>
       </c>
@@ -1828,7 +2050,7 @@
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -1837,14 +2059,14 @@
       <c r="G40" s="4"/>
       <c r="I40" s="13"/>
       <c r="J40" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>2</v>
       </c>
@@ -1868,7 +2090,7 @@
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
         <v>39</v>
       </c>
@@ -1885,8 +2107,10 @@
       <c r="G42" s="4">
         <v>9731121</v>
       </c>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
@@ -1898,6 +2122,6 @@
     <mergeCell ref="I2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Composants/Liste des composants.xlsx
+++ b/Composants/Liste des composants.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="81">
   <si>
     <t>Désignation</t>
   </si>
@@ -262,6 +262,12 @@
   </si>
   <si>
     <t>1008</t>
+  </si>
+  <si>
+    <t>SOT 23</t>
+  </si>
+  <si>
+    <t>SOT 89</t>
   </si>
 </sst>
 </file>
@@ -771,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1891,7 +1897,9 @@
       <c r="N33" s="9">
         <v>1296591</v>
       </c>
-      <c r="O33" s="18"/>
+      <c r="O33" s="18" t="s">
+        <v>79</v>
+      </c>
       <c r="P33" s="19"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
@@ -1929,7 +1937,9 @@
       <c r="N34" s="9">
         <v>1439380</v>
       </c>
-      <c r="O34" s="18"/>
+      <c r="O34" s="18" t="s">
+        <v>80</v>
+      </c>
       <c r="P34" s="19"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
